--- a/notebooks/lorenz_63/sweep.xlsx
+++ b/notebooks/lorenz_63/sweep.xlsx
@@ -3,17 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA4EE34-73FA-4972-BA7D-7D21ED34DDBB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E327250-5F1D-4B47-B7BA-1C3E34C9AD63}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2016" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -855,20 +861,1136 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Reservoirs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> / trainN parameter sweep</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="20"/>
+      <c:rotY val="170"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0573392999788074E-2"/>
+          <c:y val="0.13365765765765766"/>
+          <c:w val="0.86490010759524638"/>
+          <c:h val="0.62389756685819675"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:surface3DChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.51868710225076575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47272513199139427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47196168578147424</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51367844069782076</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8907117511336213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EEEC-4360-A943-07548FDA2044}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$22:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.56312226050681502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54198809045462282</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47280656085164069</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51623818585658576</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5332214389440707</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EEEC-4360-A943-07548FDA2044}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.45970622743836431</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45919117411913923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47760245372129351</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44851660830540574</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44030517408617931</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EEEC-4360-A943-07548FDA2044}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$24:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.52008904916849219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50147960397128866</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48976819544297573</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4944105284282157</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50688664115766713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EEEC-4360-A943-07548FDA2044}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>57000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.56947662987838998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58471732573147628</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52534031859125574</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57085815697017284</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53736807427895217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EEEC-4360-A943-07548FDA2044}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="656934192"/>
+        <c:axId val="656939952"/>
+        <c:axId val="674725544"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="656934192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>trainN</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="656939952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="656939952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RMSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.91541261146704489"/>
+              <c:y val="0.40924877633539053"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="656934192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="674725544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Reservoirs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.904297288925842E-2"/>
+              <c:y val="0.50380818613889478"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="656939952"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -888,6 +2010,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71A8A627-18C1-4593-8BA0-A1AC434663B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1159,10 +2317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1292,6 +2450,123 @@
         <v>0.62402644505414495</v>
       </c>
     </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>500</v>
+      </c>
+      <c r="D20">
+        <v>1000</v>
+      </c>
+      <c r="E20">
+        <v>1500</v>
+      </c>
+      <c r="F20">
+        <v>2000</v>
+      </c>
+      <c r="G20">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>20000</v>
+      </c>
+      <c r="C21">
+        <v>0.51868710225076575</v>
+      </c>
+      <c r="D21">
+        <v>0.47272513199139427</v>
+      </c>
+      <c r="E21">
+        <v>0.47196168578147424</v>
+      </c>
+      <c r="F21">
+        <v>0.51367844069782076</v>
+      </c>
+      <c r="G21">
+        <v>1.8907117511336213</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>30000</v>
+      </c>
+      <c r="C22">
+        <v>0.56312226050681502</v>
+      </c>
+      <c r="D22">
+        <v>0.54198809045462282</v>
+      </c>
+      <c r="E22">
+        <v>0.47280656085164069</v>
+      </c>
+      <c r="F22">
+        <v>0.51623818585658576</v>
+      </c>
+      <c r="G22">
+        <v>0.5332214389440707</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>40000</v>
+      </c>
+      <c r="C23">
+        <v>0.45970622743836431</v>
+      </c>
+      <c r="D23">
+        <v>0.45919117411913923</v>
+      </c>
+      <c r="E23">
+        <v>0.47760245372129351</v>
+      </c>
+      <c r="F23">
+        <v>0.44851660830540574</v>
+      </c>
+      <c r="G23">
+        <v>0.44030517408617931</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>50000</v>
+      </c>
+      <c r="C24">
+        <v>0.52008904916849219</v>
+      </c>
+      <c r="D24">
+        <v>0.50147960397128866</v>
+      </c>
+      <c r="E24">
+        <v>0.48976819544297573</v>
+      </c>
+      <c r="F24">
+        <v>0.4944105284282157</v>
+      </c>
+      <c r="G24">
+        <v>0.50688664115766713</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>57000</v>
+      </c>
+      <c r="C25">
+        <v>0.56947662987838998</v>
+      </c>
+      <c r="D25">
+        <v>0.58471732573147628</v>
+      </c>
+      <c r="E25">
+        <v>0.52534031859125574</v>
+      </c>
+      <c r="F25">
+        <v>0.57085815697017284</v>
+      </c>
+      <c r="G25">
+        <v>0.53736807427895217</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/notebooks/lorenz_63/sweep.xlsx
+++ b/notebooks/lorenz_63/sweep.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E327250-5F1D-4B47-B7BA-1C3E34C9AD63}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA2D9B3-4E28-4341-AF5F-B8B3DAEC2127}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2016" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3024" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>reservoirs</t>
   </si>
@@ -914,26 +914,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -1601,26 +1581,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -1729,26 +1689,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1834,26 +1774,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2017,16 +1937,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2319,8 +2239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2450,7 +2370,12 @@
         <v>0.62402644505414495</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>500</v>
       </c>
@@ -2467,7 +2392,10 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
       <c r="B21">
         <v>20000</v>
       </c>
@@ -2487,7 +2415,7 @@
         <v>1.8907117511336213</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>30000</v>
       </c>
@@ -2507,7 +2435,7 @@
         <v>0.5332214389440707</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>40000</v>
       </c>
@@ -2527,7 +2455,7 @@
         <v>0.44030517408617931</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>50000</v>
       </c>
@@ -2547,7 +2475,7 @@
         <v>0.50688664115766713</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>57000</v>
       </c>
@@ -2569,6 +2497,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/notebooks/lorenz_63/sweep.xlsx
+++ b/notebooks/lorenz_63/sweep.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA2D9B3-4E28-4341-AF5F-B8B3DAEC2127}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E3FDB7-DB97-4081-B8B9-6B96038EC138}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3024" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5040" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>reservoirs</t>
   </si>
   <si>
     <t>trainN</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>horizon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1897,6 +1906,1984 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RMSE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="90"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.9555555555555554E-2"/>
+          <c:y val="0.14856481481481484"/>
+          <c:w val="0.85322900262467205"/>
+          <c:h val="0.57236840186643334"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:surfaceChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$42:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$43:$G$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.9429552770823499E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4907034086692699E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5204961275025798E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0748366463338199E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6043011475162196E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-14EB-4650-A506-D448733E5EAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$42:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$44:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.1712589765928299E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1478314201648997E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0497894002425499E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3305128481607196E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4786910940970001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-14EB-4650-A506-D448733E5EAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$42:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$45:$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.19078322896611E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8921856711172401E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.92844924359593E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8058710946058498E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.29646009129514E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-14EB-4650-A506-D448733E5EAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$42:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$46:$G$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.7363020128150003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8487603540920999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0714667340865998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1429205162524796E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5779378618396004E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-14EB-4650-A506-D448733E5EAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>57000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$42:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$47:$G$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.8141018969310698E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9981025781498699E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4925781070200002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7536350715828499E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0236147730889896E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-14EB-4650-A506-D448733E5EAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="402641016"/>
+        <c:axId val="402637816"/>
+        <c:axId val="675340952"/>
+      </c:surfaceChart>
+      <c:catAx>
+        <c:axId val="402641016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Reservoirs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402637816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="402637816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402641016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="675340952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TrainN</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.72259645669291339"/>
+              <c:y val="0.35650556943509193"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402637816"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Horizon</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="90"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.9555555555555554E-2"/>
+          <c:y val="0.16245370370370371"/>
+          <c:w val="0.85045122484689417"/>
+          <c:h val="0.57236840186643334"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:surfaceChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$61:$G$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$62:$G$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>377.71428571000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>460.14285713999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>490.57142857000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>458.42857142000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-527F-42F6-8EC9-766EF83E4883}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$61:$G$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$63:$G$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>156.57142856999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>262.14285713999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>352.28571427999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>348.85714285</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>423.71428571000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-527F-42F6-8EC9-766EF83E4883}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$61:$G$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$64:$G$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>495.85714285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>563.42857142000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>599.85714284999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>533.14285714000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-527F-42F6-8EC9-766EF83E4883}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$61:$G$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$65:$G$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>609.57142856999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>239.28571428000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-527F-42F6-8EC9-766EF83E4883}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>57000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$61:$G$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$66:$G$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>632.71428571000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>527.14285714000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>503.42857142000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>563.85714284999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-527F-42F6-8EC9-766EF83E4883}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="402650616"/>
+        <c:axId val="402651256"/>
+        <c:axId val="675339944"/>
+      </c:surfaceChart>
+      <c:catAx>
+        <c:axId val="402650616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Reservoirs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402651256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="402651256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402650616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="675339944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TrainN</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.72120734908136475"/>
+              <c:y val="0.37039411231678604"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402651256"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1937,16 +3924,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1966,6 +3953,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC6BCAB-1E54-4ED5-9E8F-8128E5D91CF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D98119B-86AC-466E-96BE-427ABC0E01D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2237,10 +4296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2495,6 +4554,251 @@
         <v>0.53736807427895217</v>
       </c>
     </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>500</v>
+      </c>
+      <c r="D42">
+        <v>1000</v>
+      </c>
+      <c r="E42">
+        <v>1500</v>
+      </c>
+      <c r="F42">
+        <v>2000</v>
+      </c>
+      <c r="G42">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>20000</v>
+      </c>
+      <c r="C43">
+        <v>4.9429552770823499E-3</v>
+      </c>
+      <c r="D43">
+        <v>5.4907034086692699E-3</v>
+      </c>
+      <c r="E43">
+        <v>3.5204961275025798E-3</v>
+      </c>
+      <c r="F43">
+        <v>5.0748366463338199E-3</v>
+      </c>
+      <c r="G43">
+        <v>6.6043011475162196E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>30000</v>
+      </c>
+      <c r="C44">
+        <v>8.1712589765928299E-3</v>
+      </c>
+      <c r="D44">
+        <v>6.1478314201648997E-3</v>
+      </c>
+      <c r="E44">
+        <v>6.0497894002425499E-3</v>
+      </c>
+      <c r="F44">
+        <v>7.3305128481607196E-3</v>
+      </c>
+      <c r="G44">
+        <v>5.4786910940970001E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>40000</v>
+      </c>
+      <c r="C45">
+        <v>4.19078322896611E-3</v>
+      </c>
+      <c r="D45">
+        <v>2.8921856711172401E-3</v>
+      </c>
+      <c r="E45">
+        <v>2.92844924359593E-3</v>
+      </c>
+      <c r="F45">
+        <v>3.8058710946058498E-3</v>
+      </c>
+      <c r="G45">
+        <v>3.29646009129514E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>50000</v>
+      </c>
+      <c r="C46">
+        <v>4.7363020128150003E-3</v>
+      </c>
+      <c r="D46">
+        <v>3.8487603540920999E-3</v>
+      </c>
+      <c r="E46">
+        <v>4.0714667340865998E-3</v>
+      </c>
+      <c r="F46">
+        <v>5.1429205162524796E-3</v>
+      </c>
+      <c r="G46">
+        <v>6.5779378618396004E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>57000</v>
+      </c>
+      <c r="C47">
+        <v>9.8141018969310698E-3</v>
+      </c>
+      <c r="D47">
+        <v>2.9981025781498699E-3</v>
+      </c>
+      <c r="E47">
+        <v>5.4925781070200002E-3</v>
+      </c>
+      <c r="F47">
+        <v>4.7536350715828499E-3</v>
+      </c>
+      <c r="G47">
+        <v>6.0236147730889896E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>500</v>
+      </c>
+      <c r="D61">
+        <v>1000</v>
+      </c>
+      <c r="E61">
+        <v>1500</v>
+      </c>
+      <c r="F61">
+        <v>2000</v>
+      </c>
+      <c r="G61">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>20000</v>
+      </c>
+      <c r="C62">
+        <v>377.71428571000001</v>
+      </c>
+      <c r="D62">
+        <v>460.14285713999999</v>
+      </c>
+      <c r="E62">
+        <v>490.57142857000002</v>
+      </c>
+      <c r="F62">
+        <v>400</v>
+      </c>
+      <c r="G62">
+        <v>458.42857142000003</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>30000</v>
+      </c>
+      <c r="C63">
+        <v>156.57142856999999</v>
+      </c>
+      <c r="D63">
+        <v>262.14285713999999</v>
+      </c>
+      <c r="E63">
+        <v>352.28571427999998</v>
+      </c>
+      <c r="F63">
+        <v>348.85714285</v>
+      </c>
+      <c r="G63">
+        <v>423.71428571000001</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>40000</v>
+      </c>
+      <c r="C64">
+        <v>495.85714285</v>
+      </c>
+      <c r="D64">
+        <v>563.42857142000003</v>
+      </c>
+      <c r="E64">
+        <v>599.85714284999995</v>
+      </c>
+      <c r="F64">
+        <v>606</v>
+      </c>
+      <c r="G64">
+        <v>533.14285714000005</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>50000</v>
+      </c>
+      <c r="C65">
+        <v>273</v>
+      </c>
+      <c r="D65">
+        <v>609.57142856999997</v>
+      </c>
+      <c r="E65">
+        <v>514</v>
+      </c>
+      <c r="F65">
+        <v>298</v>
+      </c>
+      <c r="G65">
+        <v>239.28571428000001</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>57000</v>
+      </c>
+      <c r="C66">
+        <v>387</v>
+      </c>
+      <c r="D66">
+        <v>632.71428571000001</v>
+      </c>
+      <c r="E66">
+        <v>527.14285714000005</v>
+      </c>
+      <c r="F66">
+        <v>503.42857142000003</v>
+      </c>
+      <c r="G66">
+        <v>563.85714284999995</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F74" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/notebooks/lorenz_63/sweep.xlsx
+++ b/notebooks/lorenz_63/sweep.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E3FDB7-DB97-4081-B8B9-6B96038EC138}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C81B387-2737-4E9D-A0C9-E260B8C37BC3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6048" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>reservoirs</t>
   </si>
@@ -3884,6 +3884,947 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Horizon</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="90"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.9555555555555554E-2"/>
+          <c:y val="0.13930555555555557"/>
+          <c:w val="0.85322900262467205"/>
+          <c:h val="0.60477580927384067"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:surfaceChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$106</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$105:$F$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$106:$F$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>381</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17AE-4EB4-A67E-945C53AAD8F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$107</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$105:$F$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$107:$F$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>561</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-17AE-4EB4-A67E-945C53AAD8F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$108</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$105:$F$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$108:$F$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-17AE-4EB4-A67E-945C53AAD8F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$109</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>57000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$105:$F$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$109:$F$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-17AE-4EB4-A67E-945C53AAD8F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="393192184"/>
+        <c:axId val="393188344"/>
+        <c:axId val="655348984"/>
+      </c:surfaceChart>
+      <c:catAx>
+        <c:axId val="393192184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Reservoirs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393188344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="393188344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393192184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="655348984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>trainN</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393188344"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4025,6 +4966,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>58271</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>363071</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A9F485-1107-43F8-A11E-B1784F1DA688}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4296,10 +5273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T107" sqref="T107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4799,6 +5776,176 @@
         <v>4</v>
       </c>
     </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>500</v>
+      </c>
+      <c r="D83">
+        <v>1000</v>
+      </c>
+      <c r="E83">
+        <v>1500</v>
+      </c>
+      <c r="F83">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>30000</v>
+      </c>
+      <c r="C84">
+        <v>8.8288019280326393E-3</v>
+      </c>
+      <c r="D84">
+        <v>5.9975717504647504E-3</v>
+      </c>
+      <c r="E84">
+        <v>6.0539844593082001E-3</v>
+      </c>
+      <c r="F84">
+        <v>5.63663444126857E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>40000</v>
+      </c>
+      <c r="C85">
+        <v>3.0139662073668098E-3</v>
+      </c>
+      <c r="D85">
+        <v>2.8616241643307401E-3</v>
+      </c>
+      <c r="E85">
+        <v>3.9537536884761597E-3</v>
+      </c>
+      <c r="F85">
+        <v>3.0488689948612998E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>50000</v>
+      </c>
+      <c r="C86">
+        <v>6.4651014457806901E-3</v>
+      </c>
+      <c r="D86">
+        <v>3.2893135238692799E-3</v>
+      </c>
+      <c r="E86">
+        <v>3.9478872301188699E-3</v>
+      </c>
+      <c r="F86">
+        <v>4.9615014234353598E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>57000</v>
+      </c>
+      <c r="C87">
+        <v>7.9113349517297808E-3</v>
+      </c>
+      <c r="D87">
+        <v>4.9358647020249996E-3</v>
+      </c>
+      <c r="E87">
+        <v>5.2348154006500698E-3</v>
+      </c>
+      <c r="F87">
+        <v>4.3309998054928299E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>500</v>
+      </c>
+      <c r="D105">
+        <v>1000</v>
+      </c>
+      <c r="E105">
+        <v>1500</v>
+      </c>
+      <c r="F105">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>30000</v>
+      </c>
+      <c r="C106">
+        <v>156</v>
+      </c>
+      <c r="D106">
+        <v>271</v>
+      </c>
+      <c r="E106">
+        <v>336</v>
+      </c>
+      <c r="F106">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>40000</v>
+      </c>
+      <c r="C107">
+        <v>562</v>
+      </c>
+      <c r="D107">
+        <v>572</v>
+      </c>
+      <c r="E107">
+        <v>619</v>
+      </c>
+      <c r="F107">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>50000</v>
+      </c>
+      <c r="C108">
+        <v>152</v>
+      </c>
+      <c r="D108">
+        <v>491</v>
+      </c>
+      <c r="E108">
+        <v>527</v>
+      </c>
+      <c r="F108">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>57000</v>
+      </c>
+      <c r="C109">
+        <v>415</v>
+      </c>
+      <c r="D109">
+        <v>511</v>
+      </c>
+      <c r="E109">
+        <v>569</v>
+      </c>
+      <c r="F109">
+        <v>582</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
